--- a/biology/Médecine/1743_en_santé_et_médecine/1743_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1743_en_santé_et_médecine/1743_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1743_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1743_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1743 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1743_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1743_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>20 février : Adélaïde d'Orléans meurt de la variole à 44 ans[1].
-Mars : épidémie à Paris ; une maladie nouvelle que l’on appelle la grippe[2].
-23 avril : le statut de chirurgien est reconnu par ordonnance royale[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20 février : Adélaïde d'Orléans meurt de la variole à 44 ans.
+Mars : épidémie à Paris ; une maladie nouvelle que l’on appelle la grippe.
+23 avril : le statut de chirurgien est reconnu par ordonnance royale.
 Cette année-là
-La peste fait 43 000 morts à Messine[4].
-Jean-Louis Petit propose la cholécystectomie dans la lithiase vésiculaire[5],[6].</t>
+La peste fait 43 000 morts à Messine.
+Jean-Louis Petit propose la cholécystectomie dans la lithiase vésiculaire,.</t>
         </is>
       </c>
     </row>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1743_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1743_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,10 +560,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2 juin : le chirurgien britannique William Hunter (1718-1783) présente son texte Of the structure and diseases of articulating cartilages à la Royal Society[7],[8].
-Robert Bunon : Essay sur les maladies des dents[9].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2 juin : le chirurgien britannique William Hunter (1718-1783) présente son texte Of the structure and diseases of articulating cartilages à la Royal Society,.
+Robert Bunon : Essay sur les maladies des dents.
 James Parsons : Description de la vessie urinaire de l'homme, traduction d'un ouvrage, A description of the human urinary bladder, and parts belonging to it, de 1742.</t>
         </is>
       </c>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1743_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1743_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,13 +594,15 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>24 mai : Marat (mort en 1793), médecin, physicien, journaliste et homme politique français, député montagnard à la Convention nationale[10].
-12 juillet : Jean-François Barailon (mort en 1816), médecin et homme politique français[11].
-30 octobre : François Chopart (mort en 1795), chirurgien français[12].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>24 mai : Marat (mort en 1793), médecin, physicien, journaliste et homme politique français, député montagnard à la Convention nationale.
+12 juillet : Jean-François Barailon (mort en 1816), médecin et homme politique français.
+30 octobre : François Chopart (mort en 1795), chirurgien français.
 Au cours de l'année 1743 :
-Pierre-François Tingry (mort en 1821), pharmacien, chimiste et minéralogiste français[13].</t>
+Pierre-François Tingry (mort en 1821), pharmacien, chimiste et minéralogiste français.</t>
         </is>
       </c>
     </row>
@@ -594,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1743_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1743_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,9 +630,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>9 juin : Louis Lémery (né en 1677), médecin, botaniste et chimiste français[14].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>9 juin : Louis Lémery (né en 1677), médecin, botaniste et chimiste français.</t>
         </is>
       </c>
     </row>
